--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C321DE77-5640-493B-B2C5-1FA5DB225BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B4EE2-2754-4CB6-BBB1-B4446E316EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1B4EE2-2754-4CB6-BBB1-B4446E316EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5D95B-CC58-41CD-B22E-FAC5E563E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Accrual Total</t>
+  </si>
+  <si>
+    <t>9234328533</t>
+  </si>
+  <si>
+    <t>FEB2025</t>
   </si>
 </sst>
 </file>
@@ -346,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,6 +376,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>355.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B5D95B-CC58-41CD-B22E-FAC5E563E840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4662D3E-C693-43E7-B5F1-3CFAE016238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Invoice Number</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>Accrual Total</t>
-  </si>
-  <si>
-    <t>9234328533</t>
-  </si>
-  <si>
-    <t>FEB2025</t>
   </si>
 </sst>
 </file>
@@ -352,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,17 +370,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>355.41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4662D3E-C693-43E7-B5F1-3CFAE016238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABADD1-D23C-4E35-9AA9-348A0CA45E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="A2:C6"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABADD1-D23C-4E35-9AA9-348A0CA45E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0B8EC-4149-41D6-97E7-0A35E4AF51D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-13620" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+      <selection activeCell="C2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F0B8EC-4149-41D6-97E7-0A35E4AF51D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C323DA8-A27B-4DCE-9B09-73451014339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C3"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Funding Requested.xlsx
+++ b/Funding Requested.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiBo3\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C323DA8-A27B-4DCE-9B09-73451014339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D1E47C-7992-4DE8-867F-EA5043DE2DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A2:C4"/>
+      <selection activeCell="C3" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
